--- a/src/main/webapp/importTpl/projectCostImportTpl.xlsx
+++ b/src/main/webapp/importTpl/projectCostImportTpl.xlsx
@@ -22,10 +22,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>报销名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -38,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>报销日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>商务</t>
   </si>
   <si>
@@ -72,6 +64,14 @@
   </si>
   <si>
     <t>导入测试1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述(可为空)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,6 +79,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -136,7 +139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -147,6 +150,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -515,7 +524,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -535,71 +544,71 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" s="5">
         <v>42824</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>20170407</v>
+      </c>
+      <c r="F3" s="6">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E3" s="5">
-        <v>42824</v>
-      </c>
-      <c r="F3" s="4">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/webapp/importTpl/projectCostImportTpl.xlsx
+++ b/src/main/webapp/importTpl/projectCostImportTpl.xlsx
@@ -139,7 +139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -153,9 +153,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -524,7 +521,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -576,7 +573,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="5">
-        <v>42824</v>
+        <v>42817</v>
       </c>
       <c r="F2" s="6">
         <v>30</v>
@@ -601,8 +598,8 @@
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7">
-        <v>20170407</v>
+      <c r="E3" s="5">
+        <v>42832</v>
       </c>
       <c r="F3" s="6">
         <v>30</v>

--- a/src/main/webapp/importTpl/projectCostImportTpl.xlsx
+++ b/src/main/webapp/importTpl/projectCostImportTpl.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="12768" windowHeight="5712"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>项目编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,16 +73,19 @@
   <si>
     <t>描述(可为空)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期必须是日期格式</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +120,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -139,7 +149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -155,6 +165,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -162,86 +173,23 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -308,6 +256,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -342,6 +291,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -517,26 +467,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" customWidth="1"/>
+    <col min="4" max="4" width="10.09765625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.69921875" style="5" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="12.8984375" customWidth="1"/>
     <col min="11" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" customHeight="1">
+    <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -559,7 +509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -585,7 +535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -606,6 +556,9 @@
       </c>
       <c r="G3" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -616,17 +569,17 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -634,12 +587,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
